--- a/biology/Botanique/Centella/Centella.xlsx
+++ b/biology/Botanique/Centella/Centella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centella est un genre de plantes de la famille des Apiaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 août 2017) :
 Centella asiatica (L.) Urban
 Centella erecta (L. f.) Fern.
-Selon Catalogue of Life                                   (7 août 2017)[3] :
+Selon Catalogue of Life                                   (7 août 2017) :
 Centella affinis (Eckl. &amp; Zeyh.) Adamson
 Centella annua M. T. R. Schubert &amp; B.-E. von Wyk
 Centella asiatica (L.) Urb.
@@ -568,14 +582,14 @@
 Centella uniflora (Col.) Nannf.
 Centella villosa L.
 Centella virgata (L. fil.) Drude
-Selon GRIN            (7 août 2017)[4] :
+Selon GRIN            (7 août 2017) :
 Centella asiatica (L.) Urb.
 Centella erecta (L. f.) Fernald
 Centella villosa L.
-Selon ITIS      (7 août 2017)[5] :
+Selon ITIS      (7 août 2017) :
 Centella asiatica (L.) Urb.
 Centella villosa L.
-Selon NCBI  (7 août 2017)[6] :
+Selon NCBI  (7 août 2017) :
 Centella asiatica
 Centella capensis
 Centella difformis
@@ -589,7 +603,7 @@
 Centella uniflora
 Centella villosa
 Centella virgata
-Selon The Plant List            (7 août 2017)[7] :
+Selon The Plant List            (7 août 2017) :
 Centella abbreviata (A. Rich.) Nannf.
 Centella affinis (Eckl. &amp; Zeyh.) Adamson
 Centella annua M.Schub. &amp; B.-E.van Wyk
@@ -643,7 +657,7 @@
 Centella umbellata M.Schub. &amp; B.-E.van Wyk
 Centella villosa L.
 Centella virgata (L.f.) Drude
-Selon Tropicos                                           (7 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Centella abbreviata (A. Rich.) Nannf.
 Centella affinis (Eckl. &amp; Zeyh.) Adamson
 Centella annua M. Schub. &amp; B.-E. van Wyk
